--- a/client/public/templates/mass_event_invite_sample.xlsx
+++ b/client/public/templates/mass_event_invite_sample.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Title</t>
   </si>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t>3577 Rue de Bullion, Montréal, QC H2X 3A1, Canada</t>
-  </si>
-  <si>
-    <t>Football Match</t>
-  </si>
-  <si>
-    <t>Event Description</t>
   </si>
 </sst>
 </file>
@@ -94,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -109,7 +103,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -163,7 +156,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -179,66 +172,54 @@
       <c r="C2" s="7">
         <v>42867.375</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>42867.416666666664</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>401.0</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8">
-        <v>42867.875</v>
-      </c>
-      <c r="D3" s="8">
-        <v>42867.916666666664</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="9">
-        <v>120.0</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="3"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="9"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -255,7 +236,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -272,7 +253,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -289,7 +270,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -306,7 +287,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -323,7 +304,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -340,7 +321,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -357,7 +338,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -374,7 +355,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -391,7 +372,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -408,7 +389,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -425,7 +406,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -442,7 +423,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -459,7 +440,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -476,13 +457,13 @@
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -493,24 +474,24 @@
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -527,7 +508,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -544,7 +525,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -17159,23 +17140,6 @@
       <c r="N999" s="4"/>
       <c r="O999" s="4"/>
     </row>
-    <row r="1000">
-      <c r="A1000" s="4"/>
-      <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
-      <c r="E1000" s="4"/>
-      <c r="F1000" s="4"/>
-      <c r="G1000" s="4"/>
-      <c r="H1000" s="4"/>
-      <c r="I1000" s="4"/>
-      <c r="J1000" s="4"/>
-      <c r="K1000" s="4"/>
-      <c r="L1000" s="4"/>
-      <c r="M1000" s="4"/>
-      <c r="N1000" s="4"/>
-      <c r="O1000" s="4"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
